--- a/intlab/Test_4.xlsx
+++ b/intlab/Test_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DE\Documents\Github\intlab\intlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5B829F-2BCB-4961-9180-A4A1AAB111DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9917FE0-4FF8-4E68-9930-CDFC0602C70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4196,7 +4196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24B9879-71B2-45D6-A8B4-339B56FB657A}">
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
